--- a/연봉별 퇴사율 조사.xlsx
+++ b/연봉별 퇴사율 조사.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zer12\Desktop\git-test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zer12\Desktop\git-test\1LEE3KIM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4311FDE-E117-4CD8-AA3A-B783078B8FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23278E3A-150C-43FA-81DE-3C6BDF862FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{6F3FE444-B824-46CA-8671-EA8AC39FDFDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="728" xr2:uid="{6F3FE444-B824-46CA-8671-EA8AC39FDFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -284,7 +284,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,15 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -335,11 +344,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -347,6 +353,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -364,6 +382,407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>640966</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>201220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391110</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>8703</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{179B9F98-72F1-2CD9-3EE7-985A584C8780}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640966" y="658420"/>
+          <a:ext cx="4550744" cy="2779283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>433918</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F417231C-8130-F4EC-81AE-A0AF759C8669}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="657927"/>
+          <a:ext cx="4548718" cy="2829108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>200727</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>331034</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>58035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE37E874-D3C6-D1C0-623A-3A1961DB4766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287000" y="657927"/>
+          <a:ext cx="4445834" cy="2829108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>365331</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB20EC74-AA24-5FA8-024D-FA3C3D1BBF7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="3476828"/>
+          <a:ext cx="4388691" cy="2710612"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>296741</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5A5399B-74BD-EFF1-FB95-DC514BE94892}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="3457391"/>
+          <a:ext cx="4320101" cy="2730049"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>273880</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>210571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57148CAA-A5E3-181E-0528-9ABF990CFDD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="3528060"/>
+          <a:ext cx="4297240" cy="2648971"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>384381</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>198756</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{772F5DF7-7FCB-E40C-7B20-10B7E41B78B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="670560" y="6408420"/>
+          <a:ext cx="4407741" cy="2629536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>215995</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>346276</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D51BC327-52A1-6E6D-2561-5D566C7C8316}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5364480" y="6403435"/>
+          <a:ext cx="4369636" cy="2656745"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342466</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>32195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C04168EA-6F9C-22A3-803A-C034BA696F8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10058400" y="6408420"/>
+          <a:ext cx="4365826" cy="2683955"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,279 +1104,280 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF462E5E-837F-4AEC-8599-B7A99377C1F3}">
   <dimension ref="B2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="8.796875" style="3"/>
+    <col min="9" max="9" width="12.8984375" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="4">
         <v>4.7E-2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="4">
         <v>1.2E-2</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="4">
         <v>0</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="4">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="4">
         <v>2.4E-2</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="4">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="4">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="4">
         <v>0.124</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="4">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="4">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="4">
         <v>0.05</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="4">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="4">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="4">
         <v>0.128</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="4">
         <v>0.16300000000000001</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="4">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="4">
         <v>6.2E-2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B15" s="3"/>
+      <c r="B15" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -969,7 +1389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0D0D1EC-DB83-4441-9B6E-FC332FA58397}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
@@ -1144,7 +1564,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -1167,14 +1587,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8692AB0B-9C1F-46A3-B998-3519742D8E37}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" activeCellId="1" sqref="B2 E8"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1184,6 +1604,7 @@
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D326260F-D3EF-432C-AD39-BE1134621B56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1192,7 +1613,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1366,7 +1787,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -1564,7 +1985,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -1762,7 +2183,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -1960,7 +2381,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -2158,7 +2579,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -2356,7 +2777,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -2554,7 +2975,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
@@ -2752,7 +3173,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>2024.1</v>
       </c>
       <c r="B13">
